--- a/data/SHN.xlsx
+++ b/data/SHN.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SHN</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AP176"/>
+  <dimension ref="A1:AQ176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27813,6 +27813,7 @@
     <col min="40" max="40" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="18.5390625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="18.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27982,6 +27983,9 @@
       <c r="AP11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AQ11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28107,6 +28111,9 @@
       <c r="AP12" s="25" t="n">
         <v>2.1009258085E10</v>
       </c>
+      <c r="AQ12" s="25" t="n">
+        <v>3.8194449242E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28232,6 +28239,9 @@
       <c r="AP13" s="25" t="n">
         <v>3.518378192E9</v>
       </c>
+      <c r="AQ13" s="25" t="n">
+        <v>2.124399985E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28357,6 +28367,9 @@
       <c r="AP14" s="25" t="n">
         <v>8.189096921E9</v>
       </c>
+      <c r="AQ14" s="25" t="n">
+        <v>8.754010639E9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28482,6 +28495,9 @@
       <c r="AP15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28607,6 +28623,9 @@
       <c r="AP16" s="25" t="n">
         <v>9.301782972E9</v>
       </c>
+      <c r="AQ16" s="25" t="n">
+        <v>2.7316038618E10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28732,6 +28751,9 @@
       <c r="AP17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28857,6 +28879,9 @@
       <c r="AP18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28982,6 +29007,9 @@
       <c r="AP19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -29107,6 +29135,9 @@
       <c r="AP20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -29232,6 +29263,9 @@
       <c r="AP21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -29357,6 +29391,9 @@
       <c r="AP22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29482,6 +29519,9 @@
       <c r="AP23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29607,6 +29647,9 @@
       <c r="AP24" s="25" t="n">
         <v>4.84273671212E11</v>
       </c>
+      <c r="AQ24" s="25" t="n">
+        <v>4.94074082992E11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29732,6 +29775,9 @@
       <c r="AP25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29857,6 +29903,9 @@
       <c r="AP26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29982,6 +30031,9 @@
       <c r="AP27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -30107,6 +30159,9 @@
       <c r="AP28" s="25" t="n">
         <v>4.84273671212E11</v>
       </c>
+      <c r="AQ28" s="25" t="n">
+        <v>4.94074082992E11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -30232,6 +30287,9 @@
       <c r="AP29" s="25" t="n">
         <v>3.32140762965E11</v>
       </c>
+      <c r="AQ29" s="25" t="n">
+        <v>3.2745993408E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -30357,6 +30415,9 @@
       <c r="AP30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -30482,6 +30543,9 @@
       <c r="AP31" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ31" s="25" t="n">
+        <v>970000.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -30607,6 +30671,9 @@
       <c r="AP32" s="25" t="n">
         <v>2.0141931E7</v>
       </c>
+      <c r="AQ32" s="25" t="n">
+        <v>2.24994696E8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -30732,6 +30799,9 @@
       <c r="AP33" s="25" t="n">
         <v>3.18516179436E11</v>
       </c>
+      <c r="AQ33" s="25" t="n">
+        <v>3.18471571393E11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -30857,6 +30927,9 @@
       <c r="AP34" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ34" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30982,6 +31055,9 @@
       <c r="AP35" s="25" t="n">
         <v>1.3604441598E10</v>
       </c>
+      <c r="AQ35" s="25" t="n">
+        <v>8.762397991E9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -31107,6 +31183,9 @@
       <c r="AP36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -31232,6 +31311,9 @@
       <c r="AP37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -31357,6 +31439,9 @@
       <c r="AP38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -31482,6 +31567,9 @@
       <c r="AP39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -31607,6 +31695,9 @@
       <c r="AP40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -31732,6 +31823,9 @@
       <c r="AP41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -31857,6 +31951,9 @@
       <c r="AP42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -31982,6 +32079,9 @@
       <c r="AP43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -32107,6 +32207,9 @@
       <c r="AP44" s="25" t="n">
         <v>6.43957809E11</v>
       </c>
+      <c r="AQ44" s="25" t="n">
+        <v>6.43957809E11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -32232,6 +32335,9 @@
       <c r="AP45" s="25" t="n">
         <v>1.637875E9</v>
       </c>
+      <c r="AQ45" s="25" t="n">
+        <v>6.43957809E11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -32357,6 +32463,9 @@
       <c r="AP46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -32482,6 +32591,9 @@
       <c r="AP47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -32607,6 +32719,9 @@
       <c r="AP48" s="25" t="n">
         <v>6.42319934E11</v>
       </c>
+      <c r="AQ48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -32732,6 +32847,9 @@
       <c r="AP49" s="25" t="n">
         <v>3.6679239585E10</v>
       </c>
+      <c r="AQ49" s="25" t="n">
+        <v>3.7484757222E10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -32857,6 +32975,9 @@
       <c r="AP50" s="25" t="n">
         <v>3.4335901024E10</v>
       </c>
+      <c r="AQ50" s="25" t="n">
+        <v>3.4335901024E10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -32982,6 +33103,9 @@
       <c r="AP51" s="25" t="n">
         <v>2.522680464E9</v>
       </c>
+      <c r="AQ51" s="25" t="n">
+        <v>3.328198101E9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -33107,6 +33231,9 @@
       <c r="AP52" s="25" t="n">
         <v>-1.79341903E8</v>
       </c>
+      <c r="AQ52" s="25" t="n">
+        <v>-1.79341903E8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -33232,6 +33359,9 @@
       <c r="AP53" s="25" t="n">
         <v>2.1089449217E10</v>
       </c>
+      <c r="AQ53" s="25" t="n">
+        <v>2.1821832346E10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -33357,6 +33487,9 @@
       <c r="AP54" s="25" t="n">
         <v>1.9958525812E10</v>
       </c>
+      <c r="AQ54" s="25" t="n">
+        <v>1.9958525812E10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -33482,6 +33615,9 @@
       <c r="AP55" s="25" t="n">
         <v>1.310265308E9</v>
       </c>
+      <c r="AQ55" s="25" t="n">
+        <v>2.042648437E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -33607,6 +33743,9 @@
       <c r="AP56" s="25" t="n">
         <v>-1.79341903E8</v>
       </c>
+      <c r="AQ56" s="25" t="n">
+        <v>-1.79341903E8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -33732,6 +33871,9 @@
       <c r="AP57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -33857,6 +33999,9 @@
       <c r="AP58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -33982,6 +34127,9 @@
       <c r="AP59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -34107,6 +34255,9 @@
       <c r="AP60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -34232,6 +34383,9 @@
       <c r="AP61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -34357,6 +34511,9 @@
       <c r="AP62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -34482,6 +34639,9 @@
       <c r="AP63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -34607,6 +34767,9 @@
       <c r="AP64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -34732,6 +34895,9 @@
       <c r="AP65" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ65" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -34857,6 +35023,9 @@
       <c r="AP66" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ66" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -34982,6 +35151,9 @@
       <c r="AP67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -35107,6 +35279,9 @@
       <c r="AP68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -35232,6 +35407,9 @@
       <c r="AP69" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ69" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -35357,6 +35535,9 @@
       <c r="AP70" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ70" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -35482,6 +35663,9 @@
       <c r="AP71" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -35607,6 +35791,9 @@
       <c r="AP72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -35732,6 +35919,9 @@
       <c r="AP73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -35857,6 +36047,9 @@
       <c r="AP74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -35982,6 +36175,9 @@
       <c r="AP75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -36107,6 +36303,9 @@
       <c r="AP76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -36232,6 +36431,9 @@
       <c r="AP77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -36357,6 +36559,9 @@
       <c r="AP78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -36482,6 +36687,9 @@
       <c r="AP79" s="25" t="n">
         <v>3.290265645877E12</v>
       </c>
+      <c r="AQ79" s="25" t="n">
+        <v>3.155551784365E12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -36607,6 +36815,9 @@
       <c r="AP80" s="25" t="n">
         <v>3.290265645877E12</v>
       </c>
+      <c r="AQ80" s="25" t="n">
+        <v>3.155551784365E12</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -36732,6 +36943,9 @@
       <c r="AP81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -36857,6 +37071,9 @@
       <c r="AP82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -36982,6 +37199,9 @@
       <c r="AP83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -37107,6 +37327,9 @@
       <c r="AP84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -37232,6 +37455,9 @@
       <c r="AP85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -37357,6 +37583,9 @@
       <c r="AP86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -37482,6 +37711,9 @@
       <c r="AP87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -37607,6 +37839,9 @@
       <c r="AP88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -37732,6 +37967,9 @@
       <c r="AP89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -37857,6 +38095,9 @@
       <c r="AP90" s="25" t="n">
         <v>5.341329983E9</v>
       </c>
+      <c r="AQ90" s="25" t="n">
+        <v>5.476479999E9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -37982,6 +38223,9 @@
       <c r="AP91" s="25" t="n">
         <v>4.82349293E8</v>
       </c>
+      <c r="AQ91" s="25" t="n">
+        <v>9.71767871E8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -38107,6 +38351,9 @@
       <c r="AP92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -38232,6 +38479,9 @@
       <c r="AP93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -38357,6 +38607,9 @@
       <c r="AP94" s="25" t="n">
         <v>4.774859781E9</v>
       </c>
+      <c r="AQ94" s="25" t="n">
+        <v>4.39730843E9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -38482,6 +38735,9 @@
       <c r="AP95" s="25" t="n">
         <v>8.4120909E7</v>
       </c>
+      <c r="AQ95" s="25" t="n">
+        <v>1.07403698E8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -38607,6 +38863,9 @@
       <c r="AP96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -38732,6 +38991,9 @@
       <c r="AP97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -38857,6 +39119,9 @@
       <c r="AP98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -38982,6 +39247,9 @@
       <c r="AP99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -39107,6 +39375,9 @@
       <c r="AP100" s="25" t="n">
         <v>1.417070493E10</v>
       </c>
+      <c r="AQ100" s="25" t="n">
+        <v>2.3388516526E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -39232,6 +39503,9 @@
       <c r="AP101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -39357,6 +39631,9 @@
       <c r="AP102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -39482,6 +39759,9 @@
       <c r="AP103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -39607,6 +39887,9 @@
       <c r="AP104" s="25" t="n">
         <v>1.417070493E10</v>
       </c>
+      <c r="AQ104" s="25" t="n">
+        <v>2.3388516526E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -39732,6 +40015,9 @@
       <c r="AP105" s="25" t="n">
         <v>7.0765905642E10</v>
       </c>
+      <c r="AQ105" s="25" t="n">
+        <v>7.1000775634E10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -39857,6 +40143,9 @@
       <c r="AP106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -39982,6 +40271,9 @@
       <c r="AP107" s="25" t="n">
         <v>5.477352E7</v>
       </c>
+      <c r="AQ107" s="25" t="n">
+        <v>1.1141824E8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -40107,6 +40399,9 @@
       <c r="AP108" s="25" t="n">
         <v>2.3535786E8</v>
       </c>
+      <c r="AQ108" s="25" t="n">
+        <v>4.7761092E8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -40232,6 +40527,9 @@
       <c r="AP109" s="25" t="n">
         <v>5.5896908E7</v>
       </c>
+      <c r="AQ109" s="25" t="n">
+        <v>1.42170616E8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -40357,6 +40655,9 @@
       <c r="AP110" s="25" t="n">
         <v>1.866264E7</v>
       </c>
+      <c r="AQ110" s="25" t="n">
+        <v>3.840368E7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -40482,6 +40783,9 @@
       <c r="AP111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -40607,6 +40911,9 @@
       <c r="AP112" s="25" t="n">
         <v>4.5E10</v>
       </c>
+      <c r="AQ112" s="25" t="n">
+        <v>4.5E10</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -40732,6 +41039,9 @@
       <c r="AP113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -40857,6 +41167,9 @@
       <c r="AP114" s="25" t="n">
         <v>2.5401214714E10</v>
       </c>
+      <c r="AQ114" s="25" t="n">
+        <v>2.5231172178E10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -40982,6 +41295,9 @@
       <c r="AP115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -41107,6 +41423,9 @@
       <c r="AP116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -41232,6 +41551,9 @@
       <c r="AP117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -41357,6 +41679,9 @@
       <c r="AP118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -41482,6 +41807,9 @@
       <c r="AP119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -41607,6 +41935,9 @@
       <c r="AP120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -41732,6 +42063,9 @@
       <c r="AP121" s="25" t="n">
         <v>1.29607147E12</v>
       </c>
+      <c r="AQ121" s="25" t="n">
+        <v>1.29607147E12</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -41857,6 +42191,9 @@
       <c r="AP122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -41982,6 +42319,9 @@
       <c r="AP123" s="25" t="n">
         <v>1.29607147E12</v>
       </c>
+      <c r="AQ123" s="25" t="n">
+        <v>1.29607147E12</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -42107,6 +42447,9 @@
       <c r="AP124" s="25" t="n">
         <v>1.106174859491E12</v>
       </c>
+      <c r="AQ124" s="25" t="n">
+        <v>4.21104965257E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -42232,6 +42575,9 @@
       <c r="AP125" s="25" t="n">
         <v>1.084627344582E12</v>
       </c>
+      <c r="AQ125" s="25" t="n">
+        <v>4.0763378556E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -42357,6 +42703,9 @@
       <c r="AP126" s="25" t="n">
         <v>2.1547514909E10</v>
       </c>
+      <c r="AQ126" s="25" t="n">
+        <v>1.3471179697E10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -42482,6 +42831,9 @@
       <c r="AP127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -42607,6 +42959,9 @@
       <c r="AP128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -42732,6 +43087,9 @@
       <c r="AP129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -42857,6 +43215,9 @@
       <c r="AP130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -42982,6 +43343,9 @@
       <c r="AP131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -43107,6 +43471,9 @@
       <c r="AP132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -43232,6 +43599,9 @@
       <c r="AP133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -43357,6 +43727,9 @@
       <c r="AP134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -43482,6 +43855,9 @@
       <c r="AP135" s="25" t="n">
         <v>1.091098402558E12</v>
       </c>
+      <c r="AQ135" s="25" t="n">
+        <v>4.13462889514E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -43607,6 +43983,9 @@
       <c r="AP136" s="25" t="n">
         <v>1.091098402558E12</v>
       </c>
+      <c r="AQ136" s="25" t="n">
+        <v>4.13462889514E11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -43732,6 +44111,9 @@
       <c r="AP137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -43857,6 +44239,9 @@
       <c r="AP138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -43982,6 +44367,9 @@
       <c r="AP139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -44107,6 +44495,9 @@
       <c r="AP140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -44232,6 +44623,9 @@
       <c r="AP141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -44357,6 +44751,9 @@
       <c r="AP142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -44482,6 +44879,9 @@
       <c r="AP143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -44607,6 +45007,9 @@
       <c r="AP144" s="25" t="n">
         <v>6.9192989747E10</v>
       </c>
+      <c r="AQ144" s="25" t="n">
+        <v>6.5812054859E10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -44732,6 +45135,9 @@
       <c r="AP145" s="25" t="n">
         <v>1.3317248846E10</v>
       </c>
+      <c r="AQ145" s="25" t="n">
+        <v>1.1251466923E10</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -44857,6 +45263,9 @@
       <c r="AP146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -44982,6 +45391,9 @@
       <c r="AP147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -45107,6 +45519,9 @@
       <c r="AP148" s="25" t="n">
         <v>1.13269472E8</v>
       </c>
+      <c r="AQ148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -45232,6 +45647,9 @@
       <c r="AP149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -45357,6 +45775,9 @@
       <c r="AP150" s="25" t="n">
         <v>165680.0</v>
       </c>
+      <c r="AQ150" s="25" t="n">
+        <v>2.09798186E8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -45482,6 +45903,9 @@
       <c r="AP151" s="25" t="n">
         <v>4.0902551E7</v>
       </c>
+      <c r="AQ151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -45607,6 +46031,9 @@
       <c r="AP152" s="25" t="n">
         <v>5.5721403198E10</v>
       </c>
+      <c r="AQ152" s="25" t="n">
+        <v>5.435078975E10</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -45732,6 +46159,9 @@
       <c r="AP153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -45857,6 +46287,9 @@
       <c r="AP154" s="25" t="n">
         <v>6.0640292347E10</v>
       </c>
+      <c r="AQ154" s="25" t="n">
+        <v>6.6808745076E10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -45982,6 +46415,9 @@
       <c r="AP155" s="25" t="n">
         <v>5.3932960625E10</v>
       </c>
+      <c r="AQ155" s="25" t="n">
+        <v>5.5732886842E10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -46107,6 +46543,9 @@
       <c r="AP156" s="25" t="n">
         <v>2.433312036E9</v>
       </c>
+      <c r="AQ156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -46232,6 +46671,9 @@
       <c r="AP157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -46357,6 +46799,9 @@
       <c r="AP158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -46482,6 +46927,9 @@
       <c r="AP159" s="25" t="n">
         <v>1.8002673E7</v>
       </c>
+      <c r="AQ159" s="25" t="n">
+        <v>191000.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -46607,6 +47055,9 @@
       <c r="AP160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -46732,6 +47183,9 @@
       <c r="AP161" s="25" t="n">
         <v>-2.7115E7</v>
       </c>
+      <c r="AQ161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -46857,6 +47311,9 @@
       <c r="AP162" s="25" t="n">
         <v>4.283132013E9</v>
       </c>
+      <c r="AQ162" s="25" t="n">
+        <v>1.1075667234E10</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -46982,6 +47439,9 @@
       <c r="AP163" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -47107,6 +47567,9 @@
       <c r="AP164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -47232,6 +47695,9 @@
       <c r="AP165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -47357,6 +47823,9 @@
       <c r="AP166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -47482,6 +47951,9 @@
       <c r="AP167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -47605,6 +48077,9 @@
         <v>0.0</v>
       </c>
       <c r="AP168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -47646,7 +48121,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AP10"/>
+    <mergeCell ref="K10:AQ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SHN.xlsx
+++ b/data/SHN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SHN</t>

--- a/data/SHN.xlsx
+++ b/data/SHN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SHN</t>

--- a/data/SHN.xlsx
+++ b/data/SHN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SHN</t>
